--- a/Motor Controller/Motor Controller/Bill Of Materials.xlsx
+++ b/Motor Controller/Motor Controller/Bill Of Materials.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QDD Motor\Motor Controller\Motor Controller\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EF47BDF-A432-4AF0-B8ED-934980692F9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9A7D410-1E49-4896-B8A1-0D415480BE39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Categories</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>https://www.digikey.com/en/products/detail/jst-sales-america-inc/BM05B-SURS-TF-LF-SN/9921978</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/product/B07GGVJTB1/ref=ox_sc_act_title_1?smid=A16W999TNA4H94&amp;psc=1</t>
   </si>
 </sst>
 </file>
@@ -410,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C5:H9"/>
+  <dimension ref="C5:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -488,6 +491,11 @@
         <v>10</v>
       </c>
     </row>
+    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="H7" r:id="rId1" xr:uid="{EB8C0FBA-2677-4B95-ACB1-F937A3A49554}"/>
